--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="19815" windowHeight="7875" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="570" windowWidth="19815" windowHeight="7875" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>Longest Option</t>
   </si>
@@ -29,61 +29,31 @@
 Option</t>
   </si>
   <si>
-    <t>Keyword1</t>
-  </si>
-  <si>
     <t>Dhaka</t>
   </si>
   <si>
-    <t>Keyword2</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>Keyword3</t>
-  </si>
-  <si>
     <t>Baby</t>
   </si>
   <si>
-    <t>Keyword4</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
-    <t>Keyword5</t>
-  </si>
-  <si>
     <t>Cricket</t>
   </si>
   <si>
-    <t>Keyword6</t>
-  </si>
-  <si>
     <t>Momey</t>
   </si>
   <si>
-    <t>Keyword7</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
-    <t>Keyword8</t>
-  </si>
-  <si>
     <t>Look</t>
   </si>
   <si>
-    <t>Keyword9</t>
-  </si>
-  <si>
     <t>Hello</t>
-  </si>
-  <si>
-    <t>Keyword10</t>
   </si>
   <si>
     <t>By</t>
@@ -176,6 +146,9 @@
   </si>
   <si>
     <t>Geography</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
 </sst>
 </file>
@@ -476,98 +449,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -580,98 +528,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -684,57 +607,98 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:5">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
@@ -748,98 +712,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -863,13 +802,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -877,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -891,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -905,13 +844,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -919,13 +858,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -933,13 +872,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -947,13 +886,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -961,13 +900,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -975,13 +914,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -989,13 +928,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1003,13 +942,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1022,98 +961,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1126,104 +1040,79 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="3" width="10.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
